--- a/zibs2020/mappable/Nl.zorg.MedicalDevice-v3.3.1(2020EN).xlsx
+++ b/zibs2020/mappable/Nl.zorg.MedicalDevice-v3.3.1(2020EN).xlsx
@@ -436,47 +436,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Path</t>
+          <t>path</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>alias</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Card.</t>
+          <t>card.</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stereotype</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Definition</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DefinitionCode</t>
+          <t>definitioncode</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>ProductDescription</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MedicalDevice.ProductDescription.ProductType</t>
+          <t>MedicalDevice.ProductDescription</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,12 +697,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>AnatomicalLocation</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MedicalDevice.AnatomicalLocation.ProductType</t>
+          <t>MedicalDevice.AnatomicalLocation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -740,12 +740,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>Indication::Problem</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MedicalDevice.Indication::Problem.ProductType</t>
+          <t>MedicalDevice.Indication::Problem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -779,12 +779,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>StartDate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MedicalDevice.StartDate.ProductType</t>
+          <t>MedicalDevice.StartDate</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -822,12 +822,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>EindDatum</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MedicalDevice.EindDatum.ProductType</t>
+          <t>MedicalDevice.EindDatum</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -865,12 +865,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MedicalDevice.Comment.ProductType</t>
+          <t>MedicalDevice.Comment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -912,12 +912,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>Location::HealthcareProvider</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MedicalDevice.Location::HealthcareProvider.ProductType</t>
+          <t>MedicalDevice.Location::HealthcareProvider</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -951,12 +951,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ProductType</t>
+          <t>HealthProfessional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MedicalDevice.HealthProfessional.ProductType</t>
+          <t>MedicalDevice.HealthProfessional</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
